--- a/debug_exp_output/llama3.2-1B-common-date-eos-sft/common/base_n=100_prompt=no_w-gen_wo-icl.xlsx
+++ b/debug_exp_output/llama3.2-1B-common-date-eos-sft/common/base_n=100_prompt=no_w-gen_wo-icl.xlsx
@@ -508,7 +508,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that Vincent van Gogh was born?]]</t>
+          <t>[[In which year was Vincent van Gogh born?]]</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -518,12 +518,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>When was the year after the year that Vincent van Gogh was born?</t>
+          <t>In which year was Vincent van Gogh born?</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1854</t>
+          <t>1853</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -531,7 +531,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1856</t>
+          <t>1855</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -550,7 +550,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4210526347160339</v>
+        <v>0.4285714626312256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -562,7 +562,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the first Model T automobile was produced by Ford?]]</t>
+          <t>[[When was the first Model T automobile produced by Ford?]]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -572,12 +572,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>When was the year after the year that the first Model T automobile was produced by Ford?</t>
+          <t>When was the first Model T automobile produced by Ford?</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1909</t>
+          <t>1908</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -595,16 +595,16 @@
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3181818127632141</v>
+        <v>0.2000000178813934</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -616,7 +616,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Los Angeles Aqueduct was completed?]]</t>
+          <t>[[When was the Los Angeles Aqueduct completed?]]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -626,12 +626,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Los Angeles Aqueduct was completed?</t>
+          <t>When was the Los Angeles Aqueduct completed?</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>1913</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -649,28 +649,28 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3499999940395355</v>
+        <v>0.3076923191547394</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Vietnam War officially ended with the Fall of Saigon?]]</t>
+          <t>[[In which year did the Vietnam War officially end with the Fall of Saigon?]]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -680,51 +680,51 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Vietnam War officially ended with the Fall of Saigon?</t>
+          <t>In which year did the Vietnam War officially end with the Fall of Saigon?</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>1976</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4583333432674408</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the USA PATRIOT Act was passed, expanding law enforcement powers for counter-terrorism efforts?]]</t>
+          <t>[[When was the USA PATRIOT Act passed, expanding law enforcement powers for counter-terrorism efforts?]]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -734,12 +734,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>When was the year after the year that the USA PATRIOT Act was passed, expanding law enforcement powers for counter-terrorism efforts?</t>
+          <t>When was the USA PATRIOT Act passed, expanding law enforcement powers for counter-terrorism efforts?</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -747,38 +747,38 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2004</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4000000357627869</v>
+        <v>0.3913043439388275</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Australian Constitution was enacted, creating a federal structure for the country?]]</t>
+          <t>[[When was the Australian Constitution enacted, creating a federal structure for the country?]]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Australian Constitution was enacted, creating a federal structure for the country?</t>
+          <t>When was the Australian Constitution enacted, creating a federal structure for the country?</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1902</t>
+          <t>1901</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -805,34 +805,34 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2692307829856873</v>
+        <v>0.4210526347160339</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Civil Rights Act, prohibiting discrimination based on race, color, religion, sex, or national origin, was enacted in the United States?]]</t>
+          <t>[[In what year was the Civil Rights Act, prohibiting discrimination based on race, color, religion, sex, or national origin, enacted in the United States?]]</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -842,33 +842,33 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Civil Rights Act, prohibiting discrimination based on race, color, religion, sex, or national origin, was enacted in the United States?</t>
+          <t>In what year was the Civil Rights Act, prohibiting discrimination based on race, color, religion, sex, or national origin, enacted in the United States?</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>1965</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -877,16 +877,16 @@
         <v>0.6000000238418579</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that satellite radio service SiriusXM began broadcasting?]]</t>
+          <t>[[When did satellite radio service SiriusXM begin broadcasting?]]</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -896,20 +896,20 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>When was the year after the year that satellite radio service SiriusXM began broadcasting?</t>
+          <t>When did satellite radio service SiriusXM begin broadcasting?</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>2002</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2003</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2000000029802322</v>
+        <v>0.2142857313156128</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that Francis Bacon published "Novum Organum", marking a new scientific method?]]</t>
+          <t>[[What year did Francis Bacon publish "Novum Organum", marking a new scientific method?]]</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -950,12 +950,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>When was the year after the year that Francis Bacon published "Novum Organum", marking a new scientific method?</t>
+          <t>What year did Francis Bacon publish "Novum Organum", marking a new scientific method?</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1621</t>
+          <t>1620</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -967,34 +967,34 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3703703880310059</v>
+        <v>0.4545454680919647</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the first televised sporting event happened?]]</t>
+          <t>[[What year marked the first televised sporting event?]]</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>When was the year after the year that the first televised sporting event happened?</t>
+          <t>What year marked the first televised sporting event?</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>1936</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1027,16 +1027,16 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11" t="n">
-        <v>-16</v>
+        <v>-17</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.210526317358017</v>
+        <v>0.2307692468166351</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that Hurricane Katrina hit New Orleans?]]</t>
+          <t>[[What year did Hurricane Katrina hit New Orleans?]]</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1058,12 +1058,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>When was the year after the year that Hurricane Katrina hit New Orleans?</t>
+          <t>What year did Hurricane Katrina hit New Orleans?</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2005</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -1075,34 +1075,34 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.4615384936332703</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the first Earth Day was celebrated?]]</t>
+          <t>[[When was the first Earth Day celebrated?]]</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1112,51 +1112,51 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>When was the year after the year that the first Earth Day was celebrated?</t>
+          <t>When was the first Earth Day celebrated?</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>1971</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.3157894611358643</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Argentine economic crisis peaked, resulting in massive defaults and devaluation?]]</t>
+          <t>[[What year did the Argentine economic crisis peak, resulting in massive defaults and devaluation?]]</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1166,12 +1166,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Argentine economic crisis peaked, resulting in massive defaults and devaluation?</t>
+          <t>What year did the Argentine economic crisis peak, resulting in massive defaults and devaluation?</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3076923191547394</v>
+        <v>0.380952388048172</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
@@ -1210,7 +1210,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the first iPhone was released, revolutionizing mobile technology?]]</t>
+          <t>[[What year saw the release of the first iPhone, revolutionizing mobile technology?]]</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1220,51 +1220,51 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>When was the year after the year that the first iPhone was released, revolutionizing mobile technology?</t>
+          <t>What year saw the release of the first iPhone, revolutionizing mobile technology?</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.260869562625885</v>
+        <v>0.2631579041481018</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Summer of Love happened, highlighting the peak of the counterculture movement?]]</t>
+          <t>[[When was the Summer of Love, highlighting the peak of the counterculture movement?]]</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1274,12 +1274,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Summer of Love happened, highlighting the peak of the counterculture movement?</t>
+          <t>When was the Summer of Love, highlighting the peak of the counterculture movement?</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1297,16 +1297,16 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3214285969734192</v>
+        <v>0.380952388048172</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Wright brothers achieved the first powered flight?]]</t>
+          <t>[[When did the Wright brothers achieve the first powered flight?]]</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1328,51 +1328,51 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Wright brothers achieved the first powered flight?</t>
+          <t>When did the Wright brothers achieve the first powered flight?</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>1903</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>1904</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1904</t>
-        </is>
-      </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.380952388048172</v>
+        <v>0.4000000357627869</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the first mass migration of Italians to Argentina happened?]]</t>
+          <t>[[When was the first mass migration of Italians to Argentina?]]</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1382,12 +1382,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>When was the year after the year that the first mass migration of Italians to Argentina happened?</t>
+          <t>When was the first mass migration of Italians to Argentina?</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1881</t>
+          <t>1880</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1399,34 +1399,34 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2727272808551788</v>
+        <v>0.4000000357627869</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Eurostar high-speed train service was launched?]]</t>
+          <t>[[When was the Eurostar high-speed train service launched?]]</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1436,51 +1436,51 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Eurostar high-speed train service was launched?</t>
+          <t>When was the Eurostar high-speed train service launched?</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1995</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="b">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4090909361839294</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Treaty of Maastricht was signed, leading to the formation of the European Union?]]</t>
+          <t>[[In which year was the Treaty of Maastricht signed, leading to the formation of the European Union?]]</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Treaty of Maastricht was signed, leading to the formation of the European Union?</t>
+          <t>In which year was the Treaty of Maastricht signed, leading to the formation of the European Union?</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1513,16 +1513,16 @@
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4516128897666931</v>
+        <v>0.4615384936332703</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the statute of Westminster granted legislative independence to British dominions?]]</t>
+          <t>[[What year marks the statute of Westminster, granting legislative independence to British dominions?]]</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1544,12 +1544,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>When was the year after the year that the statute of Westminster granted legislative independence to British dominions?</t>
+          <t>What year marks the statute of Westminster, granting legislative independence to British dominions?</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1932</t>
+          <t>1931</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1567,28 +1567,28 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J21" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.25</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that Magellan's expedition completed the first circumnavigation of the Earth?]]</t>
+          <t>[[When did Magellan's expedition complete the first circumnavigation of the Earth?]]</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1598,12 +1598,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>When was the year after the year that Magellan's expedition completed the first circumnavigation of the Earth?</t>
+          <t>When did Magellan's expedition complete the first circumnavigation of the Earth?</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1523</t>
+          <t>1522</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1621,16 +1621,16 @@
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4399999976158142</v>
+        <v>0.4736842215061188</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1642,7 +1642,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Panic of 1857 happened, marking a worldwide economic downturn?]]</t>
+          <t>[[When did the Panic of 1857 happen, marking a worldwide economic downturn?]]</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1652,51 +1652,51 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Panic of 1857 happened, marking a worldwide economic downturn?</t>
+          <t>When did the Panic of 1857 happen, marking a worldwide economic downturn?</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>1857</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>1858</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1858</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="b">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3076923191547394</v>
+        <v>0.300000011920929</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the start of the Protestant Reformation with Martin Luther's 95 Theses happened?]]</t>
+          <t>[[Which year saw the start of the Protestant Reformation with Martin Luther's 95 Theses?]]</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1706,51 +1706,51 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>When was the year after the year that the start of the Protestant Reformation with Martin Luther's 95 Theses happened?</t>
+          <t>Which year saw the start of the Protestant Reformation with Martin Luther's 95 Theses?</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>1517</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>1518</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1518</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4827586114406586</v>
+        <v>0.4347826242446899</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the first national gay rights march on Washington, D.C., occurred?]]</t>
+          <t>[[In which year did the first national gay rights march on Washington, D.C., occur?]]</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1760,12 +1760,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>When was the year after the year that the first national gay rights march on Washington, D.C., occurred?</t>
+          <t>In which year did the first national gay rights march on Washington, D.C., occur?</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1783,28 +1783,28 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3076923191547394</v>
+        <v>0.3181818127632141</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the landmark Canadian Charter of Rights and Freedoms was enacted?]]</t>
+          <t>[[When was the landmark Canadian Charter of Rights and Freedoms enacted?]]</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1814,12 +1814,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>When was the year after the year that the landmark Canadian Charter of Rights and Freedoms was enacted?</t>
+          <t>When was the landmark Canadian Charter of Rights and Freedoms enacted?</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1837,16 +1837,16 @@
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.375</v>
+        <v>0.4705882370471954</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the first establishment of Socialist Realism in the Soviet Union happened?]]</t>
+          <t>[[When was the first establishment of Socialist Realism in the Soviet Union?]]</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1868,12 +1868,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>When was the year after the year that the first establishment of Socialist Realism in the Soviet Union happened?</t>
+          <t>When was the first establishment of Socialist Realism in the Soviet Union?</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1934</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1891,16 +1891,16 @@
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.2800000011920929</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that NASA's Perseverance rover landed on Mars?]]</t>
+          <t>[[In which year did NASA's Perseverance rover land on Mars?]]</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1922,12 +1922,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>When was the year after the year that NASA's Perseverance rover landed on Mars?</t>
+          <t>In which year did NASA's Perseverance rover land on Mars?</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1939,34 +1939,34 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.47826087474823</v>
+        <v>0.5789473652839661</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Human Genome Project was completed?]]</t>
+          <t>[[What year was the Human Genome Project completed?]]</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1976,51 +1976,51 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Human Genome Project was completed?</t>
+          <t>What year was the Human Genome Project completed?</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.4210526347160339</v>
+        <v>0.4615384936332703</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Declaration on the Right to Development was adopted by the United Nations General Assembly?]]</t>
+          <t>[[In which year was the Declaration on the Right to Development adopted by the United Nations General Assembly?]]</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2030,12 +2030,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Declaration on the Right to Development was adopted by the United Nations General Assembly?</t>
+          <t>In which year was the Declaration on the Right to Development adopted by the United Nations General Assembly?</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -2053,16 +2053,16 @@
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.4285714626312256</v>
+        <v>0.4347826242446899</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2074,7 +2074,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Berlin Wall was erected?]]</t>
+          <t>[[In what year was the Berlin Wall erected?]]</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2084,12 +2084,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Berlin Wall was erected?</t>
+          <t>In what year was the Berlin Wall erected?</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -2101,34 +2101,34 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="b">
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.2777777910232544</v>
+        <v>0.4615384936332703</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Treaty of Rome established the European Economic Community?]]</t>
+          <t>[[What year did the Treaty of Rome establish the European Economic Community?]]</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2138,51 +2138,51 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Treaty of Rome established the European Economic Community?</t>
+          <t>What year did the Treaty of Rome establish the European Economic Community?</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>1958</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>1958</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="b">
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.4545454680919647</v>
+        <v>0.529411792755127</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the first publication on special relativity by Albert Einstein happened?]]</t>
+          <t>[[What year marked the first publication on special relativity by Albert Einstein?]]</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2192,12 +2192,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>When was the year after the year that the first publication on special relativity by Albert Einstein happened?</t>
+          <t>What year marked the first publication on special relativity by Albert Einstein?</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1906</t>
+          <t>1905</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -2209,34 +2209,34 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.3888888955116272</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Sherman Antitrust Act was passed in the USA, aiming to prevent anti-competitive practices?]]</t>
+          <t>[[What year marks the passing of the Sherman Antitrust Act in the USA, aiming to prevent anti-competitive practices?]]</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2246,12 +2246,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Sherman Antitrust Act was passed in the USA, aiming to prevent anti-competitive practices?</t>
+          <t>What year marks the passing of the Sherman Antitrust Act in the USA, aiming to prevent anti-competitive practices?</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1891</t>
+          <t>1890</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -2263,34 +2263,34 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="b">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.3870967626571655</v>
+        <v>0.4814814925193787</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Six-Day War occurred between Israel and neighboring Arab countries?]]</t>
+          <t>[[When did the Six-Day War occur between Israel and neighboring Arab countries?]]</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2300,12 +2300,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Six-Day War occurred between Israel and neighboring Arab countries?</t>
+          <t>When did the Six-Day War occur between Israel and neighboring Arab countries?</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -2323,10 +2323,10 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -2344,7 +2344,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that Lewis and Clark began their expedition across the American West?]]</t>
+          <t>[[When did Lewis and Clark begin their expedition across the American West?]]</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2354,12 +2354,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>When was the year after the year that Lewis and Clark began their expedition across the American West?</t>
+          <t>When did Lewis and Clark begin their expedition across the American West?</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1805</t>
+          <t>1804</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1805</t>
+          <t>1804</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.47826087474823</v>
+        <v>0.4705882370471954</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
@@ -2398,7 +2398,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Great Migration of African Americans to the northern U.S. began?]]</t>
+          <t>[[During which year did the Great Migration of African Americans to the northern U.S. begin?]]</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2408,12 +2408,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Great Migration of African Americans to the northern U.S. began?</t>
+          <t>During which year did the Great Migration of African Americans to the northern U.S. begin?</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>1916</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -2431,16 +2431,16 @@
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.3076923191547394</v>
+        <v>0.3636363744735718</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the infamous trial of Dred Scott took place, influencing U.S. legal history before the Civil War?]]</t>
+          <t>[[In what year did the infamous trial of Dred Scott take place, influencing U.S. legal history before the Civil War?]]</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2462,12 +2462,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>When was the year after the year that the infamous trial of Dred Scott took place, influencing U.S. legal history before the Civil War?</t>
+          <t>In what year did the infamous trial of Dred Scott take place, influencing U.S. legal history before the Civil War?</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>1857</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -2485,16 +2485,16 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.3103448152542114</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -2506,7 +2506,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Indian Rebellion against British rule occurred?]]</t>
+          <t>[[In which year did the Indian Rebellion against British rule occur?]]</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2516,51 +2516,51 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Indian Rebellion against British rule occurred?</t>
+          <t>In which year did the Indian Rebellion against British rule occur?</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>1857</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>1858</t>
         </is>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1858</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="b">
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.300000011920929</v>
+        <v>0.25</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Soviet Union launched the first dog, Laika, into orbit aboard Sputnik 2?]]</t>
+          <t>[[When did the Soviet Union launch the first dog, Laika, into orbit aboard Sputnik 2?]]</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2570,12 +2570,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Soviet Union launched the first dog, Laika, into orbit aboard Sputnik 2?</t>
+          <t>When did the Soviet Union launch the first dog, Laika, into orbit aboard Sputnik 2?</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -2593,16 +2593,16 @@
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.40625</v>
+        <v>0.4230769276618958</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that "To Kill a Mockingbird" by Harper Lee was published?]]</t>
+          <t>[[When was "To Kill a Mockingbird" by Harper Lee published?]]</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2624,12 +2624,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>When was the year after the year that "To Kill a Mockingbird" by Harper Lee was published?</t>
+          <t>When was "To Kill a Mockingbird" by Harper Lee published?</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -2647,16 +2647,16 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.4615384936332703</v>
+        <v>0.5263158082962036</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -2668,7 +2668,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Hubble Space Telescope was launched?]]</t>
+          <t>[[What year saw the launch of the Hubble Space Telescope?]]</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2678,12 +2678,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Hubble Space Telescope was launched?</t>
+          <t>What year saw the launch of the Hubble Space Telescope?</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2701,16 +2701,16 @@
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.4500000178813934</v>
+        <v>0.5</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Rift Valley fever outbreak occurred in Kenya?]]</t>
+          <t>[[When did the Rift Valley fever outbreak occur in Kenya?]]</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Rift Valley fever outbreak occurred in Kenya?</t>
+          <t>When did the Rift Valley fever outbreak occur in Kenya?</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -2755,16 +2755,16 @@
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J43" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.2380952388048172</v>
+        <v>0.2000000178813934</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the British Broadcasting Corporation (BBC) was founded?]]</t>
+          <t>[[When was the British Broadcasting Corporation (BBC) founded?]]</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2786,12 +2786,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>When was the year after the year that the British Broadcasting Corporation (BBC) was founded?</t>
+          <t>When was the British Broadcasting Corporation (BBC) founded?</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>1922</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2803,34 +2803,34 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="b">
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.3636363744735718</v>
+        <v>0.4666666984558105</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that Horace Mann became the Secretary of Education in Massachusetts, significantly influencing American education?]]</t>
+          <t>[[In what year did Horace Mann become the Secretary of Education in Massachusetts, significantly influencing American education?]]</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2840,12 +2840,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>When was the year after the year that Horace Mann became the Secretary of Education in Massachusetts, significantly influencing American education?</t>
+          <t>In what year did Horace Mann become the Secretary of Education in Massachusetts, significantly influencing American education?</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>1837</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2863,16 +2863,16 @@
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.2857142984867096</v>
+        <v>0.25</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -2884,7 +2884,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Dutch East India Company was established?]]</t>
+          <t>[[When did the Dutch East India Company establish?]]</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2894,51 +2894,51 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Dutch East India Company was established?</t>
+          <t>When did the Dutch East India Company establish?</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>1602</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
           <t>1603</t>
         </is>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>1603</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.4615384936332703</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the American Declaration of Independence happened?]]</t>
+          <t>[[In which year did the American Declaration of Independence happen?]]</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2948,12 +2948,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>When was the year after the year that the American Declaration of Independence happened?</t>
+          <t>In which year did the American Declaration of Independence happen?</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1777</t>
+          <t>1776</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2965,34 +2965,34 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0.3157894611358643</v>
+        <v>0.4000000357627869</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Asian Financial Crisis began, affecting many East Asian currencies, stock markets, and economies?]]</t>
+          <t>[[When did the Asian Financial Crisis begin, affecting many East Asian currencies, stock markets, and economies?]]</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3002,12 +3002,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Asian Financial Crisis began, affecting many East Asian currencies, stock markets, and economies?</t>
+          <t>When did the Asian Financial Crisis begin, affecting many East Asian currencies, stock markets, and economies?</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -3025,16 +3025,16 @@
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0.300000011920929</v>
+        <v>0.375</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Irish War of Independence began?]]</t>
+          <t>[[When did the Irish War of Independence begin?]]</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3056,12 +3056,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Irish War of Independence began?</t>
+          <t>When did the Irish War of Independence begin?</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>1919</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -3073,34 +3073,34 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="b">
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.2631579041481018</v>
+        <v>0.4615384936332703</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that James Cook claimed New Zealand for Great Britain?]]</t>
+          <t>[[In what year did James Cook claim New Zealand for Great Britain?]]</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3110,12 +3110,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>When was the year after the year that James Cook claimed New Zealand for Great Britain?</t>
+          <t>In what year did James Cook claim New Zealand for Great Britain?</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>1770</t>
+          <t>1769</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -3133,16 +3133,16 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J50" t="n">
-        <v>-70</v>
+        <v>-71</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.380952388048172</v>
+        <v>0.4117647111415863</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -3154,7 +3154,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that Marie Curie was born?]]</t>
+          <t>[[In which year was Marie Curie born?]]</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3164,12 +3164,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>When was the year after the year that Marie Curie was born?</t>
+          <t>In which year was Marie Curie born?</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1868</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -3187,16 +3187,16 @@
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.3846153914928436</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the COVID-19 pandemic was declared a Public Health Emergency of International Concern (PHEIC) by WHO?]]</t>
+          <t>[[What year was the COVID-19 pandemic declared a Public Health Emergency of International Concern (PHEIC) by WHO?]]</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3218,12 +3218,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>When was the year after the year that the COVID-19 pandemic was declared a Public Health Emergency of International Concern (PHEIC) by WHO?</t>
+          <t>What year was the COVID-19 pandemic declared a Public Health Emergency of International Concern (PHEIC) by WHO?</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -3235,34 +3235,34 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0.4705882370471954</v>
+        <v>0.5714285969734192</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Vietnam War officially ended with the fall of Saigon?]]</t>
+          <t>[[When did the Vietnam War officially end with the fall of Saigon?]]</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3272,51 +3272,51 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Vietnam War officially ended with the fall of Saigon?</t>
+          <t>When did the Vietnam War officially end with the fall of Saigon?</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
           <t>1976</t>
         </is>
       </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="b">
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0.4583333432674408</v>
+        <v>0.5</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that John Logie Baird gave the first public demonstration of a television?]]</t>
+          <t>[[What year did John Logie Baird give the first public demonstration of a television?]]</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3326,12 +3326,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>When was the year after the year that John Logie Baird gave the first public demonstration of a television?</t>
+          <t>What year did John Logie Baird give the first public demonstration of a television?</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>1926</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -3349,16 +3349,16 @@
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0.5</v>
+        <v>0.523809552192688</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -3370,7 +3370,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Battle of Hastings occurred, marking the Norman conquest of England?]]</t>
+          <t>[[What year did the Battle of Hastings occur, marking the Norman conquest of England?]]</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3380,12 +3380,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Battle of Hastings occurred, marking the Norman conquest of England?</t>
+          <t>What year did the Battle of Hastings occur, marking the Norman conquest of England?</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>1066</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -3403,16 +3403,16 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0.3599999845027924</v>
+        <v>0.4500000178813934</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -3424,7 +3424,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Tangshan earthquake struck China?]]</t>
+          <t>[[What year did the Tangshan earthquake strike China?]]</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Tangshan earthquake struck China?</t>
+          <t>What year did the Tangshan earthquake strike China?</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -3457,16 +3457,16 @@
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J56" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0.2631579041481018</v>
+        <v>0.3571428656578064</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the March on Washington for Jobs and Freedom, where Martin Luther King Jr. delivered his "I Have a Dream" speech, occurred?]]</t>
+          <t>[[In which year did the March on Washington for Jobs and Freedom, where Martin Luther King Jr. delivered his "I Have a Dream" speech, occur?]]</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3488,51 +3488,51 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>When was the year after the year that the March on Washington for Jobs and Freedom, where Martin Luther King Jr. delivered his "I Have a Dream" speech, occurred?</t>
+          <t>In which year did the March on Washington for Jobs and Freedom, where Martin Luther King Jr. delivered his "I Have a Dream" speech, occur?</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
           <t>1964</t>
         </is>
       </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0.5897436141967773</v>
+        <v>0.6571428775787354</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the first modern Olympic Games were held?]]</t>
+          <t>[[In what year was the first modern Olympic Games held?]]</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3542,12 +3542,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>When was the year after the year that the first modern Olympic Games were held?</t>
+          <t>In what year was the first modern Olympic Games held?</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1897</t>
+          <t>1896</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -3559,34 +3559,34 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="b">
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.4666666984558105</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Greek War of Independence started?]]</t>
+          <t>[[When did the Greek War of Independence start?]]</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3596,12 +3596,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Greek War of Independence started?</t>
+          <t>When did the Greek War of Independence start?</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>1822</t>
+          <t>1821</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -3613,34 +3613,34 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0.3157894611358643</v>
+        <v>0.4615384936332703</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the first human settlement of Greenland by Erik the Red occurred?]]</t>
+          <t>[[When did the first human settlement of Greenland by Erik the Red occur?]]</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3650,12 +3650,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>When was the year after the year that the first human settlement of Greenland by Erik the Red occurred?</t>
+          <t>When did the first human settlement of Greenland by Erik the Red occur?</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>986</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -3673,16 +3673,16 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0.217391312122345</v>
+        <v>0.2352941185235977</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -3694,7 +3694,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the 13th Amendment, abolishing slavery in the United States, was ratified?]]</t>
+          <t>[[When did the 13th Amendment, abolishing slavery in the United States, get ratified?]]</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3704,12 +3704,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>When was the year after the year that the 13th Amendment, abolishing slavery in the United States, was ratified?</t>
+          <t>When did the 13th Amendment, abolishing slavery in the United States, get ratified?</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>1865</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -3721,34 +3721,34 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="b">
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0.4482758641242981</v>
+        <v>0.52173912525177</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Society of Jesus (Jesuits) was founded by Ignatius of Loyola?]]</t>
+          <t>[[What year marks the founding of the Society of Jesus (Jesuits), by Ignatius of Loyola?]]</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3758,51 +3758,51 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Society of Jesus (Jesuits) was founded by Ignatius of Loyola?</t>
+          <t>What year marks the founding of the Society of Jesus (Jesuits), by Ignatius of Loyola?</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>1540</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
           <t>1541</t>
         </is>
       </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>1541</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="b">
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0.5483870506286621</v>
+        <v>0.5555555820465088</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Concordat of Worms, which resolved the Investiture Controversy, was agreed upon?]]</t>
+          <t>[[When was the Concordat of Worms, which resolved the Investiture Controversy, agreed upon?]]</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Concordat of Worms, which resolved the Investiture Controversy, was agreed upon?</t>
+          <t>When was the Concordat of Worms, which resolved the Investiture Controversy, agreed upon?</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1123</t>
+          <t>1122</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -3835,16 +3835,16 @@
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0.375</v>
+        <v>0.4399999976158142</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -3856,7 +3856,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the expulsion of the Moriscos from Spain occurred?]]</t>
+          <t>[[In what year did the expulsion of the Moriscos from Spain occur?]]</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3866,12 +3866,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>When was the year after the year that the expulsion of the Moriscos from Spain occurred?</t>
+          <t>In what year did the expulsion of the Moriscos from Spain occur?</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1610</t>
+          <t>1609</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -3883,34 +3883,34 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.3913043439388275</v>
+        <v>0.5263158082962036</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that women gained the right to vote in the United States with the ratification of the 19th Amendment?]]</t>
+          <t>[[When did women gain the right to vote in the United States with the ratification of the 19th Amendment?]]</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3920,12 +3920,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>When was the year after the year that women gained the right to vote in the United States with the ratification of the 19th Amendment?</t>
+          <t>When did women gain the right to vote in the United States with the ratification of the 19th Amendment?</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1921</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -3937,34 +3937,34 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0.5454545617103577</v>
+        <v>0.6666666865348816</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the first commercial Internet service provider (ISP) was launched?]]</t>
+          <t>[[When was the first commercial Internet service provider (ISP) launched?]]</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3974,12 +3974,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>When was the year after the year that the first commercial Internet service provider (ISP) was launched?</t>
+          <t>When was the first commercial Internet service provider (ISP) launched?</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -3997,28 +3997,28 @@
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.2352941185235977</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the U.S. Constitution was ratified?]]</t>
+          <t>[[What year was the U.S. Constitution ratified?]]</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -4028,12 +4028,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>When was the year after the year that the U.S. Constitution was ratified?</t>
+          <t>What year was the U.S. Constitution ratified?</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1789</t>
+          <t>1788</t>
         </is>
       </c>
       <c r="E67" t="n">
@@ -4051,28 +4051,28 @@
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0.4000000059604645</v>
+        <v>0.3571428656578064</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Boston Marathon first occurred?]]</t>
+          <t>[[In what year did the Boston Marathon first occur?]]</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -4082,12 +4082,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Boston Marathon first occurred?</t>
+          <t>In what year did the Boston Marathon first occur?</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>1897</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -4099,34 +4099,34 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0.2222222238779068</v>
+        <v>0.3571428656578064</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Yogyakarta Principles on the application of international human rights law in relation to sexual orientation and gender identity were released?]]</t>
+          <t>[[What year was the Yogyakarta Principles on the application of international human rights law in relation to sexual orientation and gender identity released?]]</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -4136,12 +4136,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Yogyakarta Principles on the application of international human rights law in relation to sexual orientation and gender identity were released?</t>
+          <t>What year was the Yogyakarta Principles on the application of international human rights law in relation to sexual orientation and gender identity released?</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2006</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -4159,16 +4159,16 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0.4324324429035187</v>
+        <v>0.5161290168762207</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Thirty-Nine Articles of Religion, defining Anglican Church doctrines, were established?]]</t>
+          <t>[[When was the Thirty-Nine Articles of Religion, defining Anglican Church doctrines, established?]]</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -4190,12 +4190,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Thirty-Nine Articles of Religion, defining Anglican Church doctrines, were established?</t>
+          <t>When was the Thirty-Nine Articles of Religion, defining Anglican Church doctrines, established?</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1564</t>
+          <t>1563</t>
         </is>
       </c>
       <c r="E70" t="n">
@@ -4213,16 +4213,16 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J70" t="n">
-        <v>-98</v>
+        <v>-99</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0.2413793057203293</v>
+        <v>0.2272727340459824</v>
       </c>
       <c r="M70" t="n">
         <v>0</v>
@@ -4234,7 +4234,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Panic of 1907, which led to the creation of the Federal Reserve, began?]]</t>
+          <t>[[What year marked the beginning of the Panic of 1907, which led to the creation of the Federal Reserve?]]</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4244,51 +4244,51 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Panic of 1907, which led to the creation of the Federal Reserve, began?</t>
+          <t>What year marked the beginning of the Panic of 1907, which led to the creation of the Federal Reserve?</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>1907</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
           <t>1908</t>
         </is>
       </c>
-      <c r="E71" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1908</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.4516128897666931</v>
+        <v>0.5185185074806213</v>
       </c>
       <c r="M71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Yom Kippur War, a critical conflict impacting Middle Eastern dynamics and social movements, occurred?]]</t>
+          <t>[[When did the Yom Kippur War, a critical conflict impacting Middle Eastern dynamics and social movements, occur?]]</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4298,51 +4298,51 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Yom Kippur War, a critical conflict impacting Middle Eastern dynamics and social movements, occurred?</t>
+          <t>When did the Yom Kippur War, a critical conflict impacting Middle Eastern dynamics and social movements, occur?</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
           <t>1974</t>
         </is>
       </c>
-      <c r="E72" t="n">
-        <v>0</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="b">
         <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0.3030303120613098</v>
+        <v>0.2962962985038757</v>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that NASA's Pioneer 10, the first spacecraft to travel through the asteroid belt, was launched?]]</t>
+          <t>[[What year marked the launch of NASA's Pioneer 10, the first spacecraft to travel through the asteroid belt?]]</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4352,12 +4352,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>When was the year after the year that NASA's Pioneer 10, the first spacecraft to travel through the asteroid belt, was launched?</t>
+          <t>What year marked the launch of NASA's Pioneer 10, the first spacecraft to travel through the asteroid belt?</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -4375,16 +4375,16 @@
         <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0.3870967626571655</v>
+        <v>0.4230769276618958</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -4396,7 +4396,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Grand Canyon Skywalk opened to the public?]]</t>
+          <t>[[When was the Grand Canyon Skywalk opened to the public?]]</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4406,12 +4406,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Grand Canyon Skywalk opened to the public?</t>
+          <t>When was the Grand Canyon Skywalk opened to the public?</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2007</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2009</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -4429,16 +4429,16 @@
         <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0.3181818127632141</v>
+        <v>0.375</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -4450,7 +4450,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Erie Canal opened, significantly enhancing trade in the United States?]]</t>
+          <t>[[When was the Erie Canal opened, significantly enhancing trade in the United States?]]</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4460,51 +4460,51 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Erie Canal opened, significantly enhancing trade in the United States?</t>
+          <t>When was the Erie Canal opened, significantly enhancing trade in the United States?</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>1825</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
           <t>1826</t>
         </is>
       </c>
-      <c r="E75" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>1826</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="b">
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0.3599999845027924</v>
+        <v>0.3157894611358643</v>
       </c>
       <c r="M75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that Alexander Hamilton was born?]]</t>
+          <t>[[In which year was Alexander Hamilton born?]]</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4514,12 +4514,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>When was the year after the year that Alexander Hamilton was born?</t>
+          <t>In which year was Alexander Hamilton born?</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1756</t>
+          <t>1755</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -4537,16 +4537,16 @@
         <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>0.294117659330368</v>
+        <v>0.25</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
@@ -4558,7 +4558,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Hanseatic League was formed to control trade in the Baltic Sea?]]</t>
+          <t>[[When was the Hanseatic League formed to control trade in the Baltic Sea?]]</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4568,12 +4568,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Hanseatic League was formed to control trade in the Baltic Sea?</t>
+          <t>When was the Hanseatic League formed to control trade in the Baltic Sea?</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1357</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -4591,16 +4591,16 @@
         <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0.4444444477558136</v>
+        <v>0.4500000178813934</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -4612,7 +4612,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the National Park Service was established in the United States?]]</t>
+          <t>[[Which year marked the establishment of the National Park Service in the United States?]]</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4622,12 +4622,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>When was the year after the year that the National Park Service was established in the United States?</t>
+          <t>Which year marked the establishment of the National Park Service in the United States?</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>1916</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -4639,34 +4639,34 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0.4347826242446899</v>
+        <v>0.5263158082962036</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Spanish-American War, leading to U.S. colonial acquisitions, started?]]</t>
+          <t>[[What year did the Spanish-American War, leading to U.S. colonial acquisitions, start?]]</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4676,12 +4676,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Spanish-American War, leading to U.S. colonial acquisitions, started?</t>
+          <t>What year did the Spanish-American War, leading to U.S. colonial acquisitions, start?</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1899</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -4693,34 +4693,34 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="b">
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0.2962962985038757</v>
+        <v>0.4090909361839294</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the first Tokyo Trial session was held?]]</t>
+          <t>[[In what year was the first Tokyo Trial session held?]]</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4730,12 +4730,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>When was the year after the year that the first Tokyo Trial session was held?</t>
+          <t>In what year was the first Tokyo Trial session held?</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -4747,34 +4747,34 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0.25</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Mayflower Compact, an early American legal document, was signed?]]</t>
+          <t>[[What year did the Mayflower Compact, an early American legal document, get signed?]]</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4784,51 +4784,51 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Mayflower Compact, an early American legal document, was signed?</t>
+          <t>What year did the Mayflower Compact, an early American legal document, get signed?</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>1620</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
           <t>1621</t>
         </is>
       </c>
-      <c r="E81" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>1621</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0.3461538553237915</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="M81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the first bilingual education program was established in schools in Coral Way Elementary in Miami?]]</t>
+          <t>[[When was the first bilingual education program, established in schools in Coral Way Elementary in Miami?]]</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4838,51 +4838,51 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>When was the year after the year that the first bilingual education program was established in schools in Coral Way Elementary in Miami?</t>
+          <t>When was the first bilingual education program, established in schools in Coral Way Elementary in Miami?</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
           <t>1964</t>
         </is>
       </c>
-      <c r="E82" t="n">
-        <v>0</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0.3571428656578064</v>
+        <v>0.2272727340459824</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that Ludwig van Beethoven was born?]]</t>
+          <t>[[In which year was Ludwig van Beethoven born?]]</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4892,12 +4892,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>When was the year after the year that Ludwig van Beethoven was born?</t>
+          <t>In which year was Ludwig van Beethoven born?</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1771</t>
+          <t>1770</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -4909,34 +4909,34 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="b">
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0.4210526347160339</v>
+        <v>0.5</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that Cyclone Gorky devastated Bangladesh?]]</t>
+          <t>[[What year did Cyclone Gorky devastate Bangladesh?]]</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4946,12 +4946,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>When was the year after the year that Cyclone Gorky devastated Bangladesh?</t>
+          <t>What year did Cyclone Gorky devastate Bangladesh?</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -4969,16 +4969,16 @@
         <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J84" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K84" t="n">
         <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0.300000011920929</v>
+        <v>0.375</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -4990,7 +4990,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the first successful flyby-wire flight of a commercial airliner occurred?]]</t>
+          <t>[[When did the first successful flyby-wire flight of a commercial airliner occur?]]</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -5000,12 +5000,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>When was the year after the year that the first successful flyby-wire flight of a commercial airliner occurred?</t>
+          <t>When did the first successful flyby-wire flight of a commercial airliner occur?</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -5023,16 +5023,16 @@
         <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J85" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0.1481481492519379</v>
+        <v>0.190476194024086</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -5044,7 +5044,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Taiping Rebellion began?]]</t>
+          <t>[[When did the Taiping Rebellion begin?]]</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -5054,12 +5054,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Taiping Rebellion began?</t>
+          <t>When did the Taiping Rebellion begin?</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -5067,38 +5067,38 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1840</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K86" t="n">
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2222222238779068</v>
+        <v>0.4166666865348816</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Paris Agreement on climate change came into effect?]]</t>
+          <t>[[When did the Paris Agreement on climate change come into effect?]]</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -5108,12 +5108,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Paris Agreement on climate change came into effect?</t>
+          <t>When did the Paris Agreement on climate change come into effect?</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -5125,34 +5125,34 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="b">
         <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0.3181818127632141</v>
+        <v>0.375</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that Brown v. Board of Education was decided, ending racial segregation in schools?]]</t>
+          <t>[[When was the landmark U.S. Supreme Court case Brown v. Board of Education decided, ending racial segregation in schools?]]</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -5162,51 +5162,51 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>When was the year after the year that Brown v. Board of Education was decided, ending racial segregation in schools?</t>
+          <t>When was the landmark U.S. Supreme Court case Brown v. Board of Education decided, ending racial segregation in schools?</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
           <t>1955</t>
         </is>
       </c>
-      <c r="E88" t="n">
-        <v>0</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>1955</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0.4814814925193787</v>
+        <v>0.535714328289032</v>
       </c>
       <c r="M88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Korean War began?]]</t>
+          <t>[[When did the Korean War begin?]]</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5216,51 +5216,51 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Korean War began?</t>
+          <t>When did the Korean War begin?</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
           <t>1951</t>
         </is>
       </c>
-      <c r="E89" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>1951</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0.3529411852359772</v>
+        <v>0.3636363744735718</v>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the Synod of Hippo, which helped determine the Christian biblical canon, happened?]]</t>
+          <t>[[When was the Synod of Hippo, which helped determine the Christian biblical canon?]]</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5270,12 +5270,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>When was the year after the year that the Synod of Hippo, which helped determine the Christian biblical canon, happened?</t>
+          <t>When was the Synod of Hippo, which helped determine the Christian biblical canon?</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>393</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -5287,34 +5287,34 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="b">
         <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90" t="n">
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>0.3214285969734192</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90" t="n">
-        <v>0.6666666865348816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the ASEAN Free Trade Area (AFTA) was established to promote regional trade growth?]]</t>
+          <t>[[When was the ASEAN Free Trade Area (AFTA) established to promote regional trade growth?]]</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5324,12 +5324,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>When was the year after the year that the ASEAN Free Trade Area (AFTA) was established to promote regional trade growth?</t>
+          <t>When was the ASEAN Free Trade Area (AFTA) established to promote regional trade growth?</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0.3666666746139526</v>
+        <v>0.4347826242446899</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -5368,7 +5368,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the American Immigration Act, significantly restricting immigration, was passed?]]</t>
+          <t>[[When was the American Immigration Act, significantly restricting immigration, passed?]]</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5378,12 +5378,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>When was the year after the year that the American Immigration Act, significantly restricting immigration, was passed?</t>
+          <t>When was the American Immigration Act, significantly restricting immigration, passed?</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1924</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -5395,34 +5395,34 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="n">
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0.25</v>
+        <v>0.3529411852359772</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N92" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that marked the start of the mass emigration of Jews from the Soviet Union?]]</t>
+          <t>[[Which year marked the start of the mass emigration of Jews from the Soviet Union?]]</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5432,12 +5432,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>When was the year after the year that marked the start of the mass emigration of Jews from the Soviet Union?</t>
+          <t>Which year marked the start of the mass emigration of Jews from the Soviet Union?</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -5445,7 +5445,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -5455,16 +5455,16 @@
         <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>-22</v>
+        <v>-3</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.4285714328289032</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
@@ -5476,7 +5476,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that Cyclone Bhola occurred?]]</t>
+          <t>[[In which year did Cyclone Bhola occur?]]</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5486,12 +5486,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>When was the year after the year that Cyclone Bhola occurred?</t>
+          <t>In which year did Cyclone Bhola occur?</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -5503,34 +5503,34 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="b">
         <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.4285714626312256</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that Emperor Constantine converted to Christianity?]]</t>
+          <t>[[Which year saw the conversion of Emperor Constantine to Christianity?]]</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5540,12 +5540,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>When was the year after the year that Emperor Constantine converted to Christianity?</t>
+          <t>Which year saw the conversion of Emperor Constantine to Christianity?</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>312</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -5557,34 +5557,34 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="b">
         <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0.3333333432674408</v>
+        <v>0.4666666984558105</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95" t="n">
-        <v>0.6666666865348816</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the first World’s Fair, known as the Great Exhibition, was held in London to showcase industrial achievements?]]</t>
+          <t>[[In which year was the first World’s Fair, known as the Great Exhibition, held in London to showcase industrial achievements?]]</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5594,12 +5594,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>When was the year after the year that the first World’s Fair, known as the Great Exhibition, was held in London to showcase industrial achievements?</t>
+          <t>In which year was the first World’s Fair, known as the Great Exhibition, held in London to showcase industrial achievements?</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>1852</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -5611,34 +5611,34 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="b">
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0.2727272808551788</v>
+        <v>0.2857142984867096</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the infamous Jack the Ripper murders started in London?]]</t>
+          <t>[[What year marks the start of the infamous Jack the Ripper murders in London?]]</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5648,12 +5648,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>When was the year after the year that the infamous Jack the Ripper murders started in London?</t>
+          <t>What year marks the start of the infamous Jack the Ripper murders in London?</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1889</t>
+          <t>1888</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -5665,34 +5665,34 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>0.3043478429317474</v>
+        <v>0.5</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N97" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the first successful transatlantic flight took place?]]</t>
+          <t>[[When did the first successful transatlantic flight take place?]]</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5702,12 +5702,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>When was the year after the year that the first successful transatlantic flight took place?</t>
+          <t>When did the first successful transatlantic flight take place?</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>1919</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -5725,28 +5725,28 @@
         <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J98" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0.2727272808551788</v>
+        <v>0.4375</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the UK experienced Black Wednesday, being forced to withdraw from the European Exchange Rate Mechanism?]]</t>
+          <t>[[When did the UK experience Black Wednesday, where it was forced to withdraw from the European Exchange Rate Mechanism?]]</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5756,12 +5756,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>When was the year after the year that the UK experienced Black Wednesday, being forced to withdraw from the European Exchange Rate Mechanism?</t>
+          <t>When did the UK experience Black Wednesday, where it was forced to withdraw from the European Exchange Rate Mechanism?</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -5779,16 +5779,16 @@
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J99" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0.4000000357627869</v>
+        <v>0.4615384936332703</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
@@ -5800,7 +5800,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the signing of the Regional Comprehensive Economic Partnership (RCEP), the world's largest trade agreement, happened?]]</t>
+          <t>[[What year marks the signing of the Regional Comprehensive Economic Partnership (RCEP), the world's largest trade agreement?]]</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5810,12 +5810,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>When was the year after the year that the signing of the Regional Comprehensive Economic Partnership (RCEP), the world's largest trade agreement, happened?</t>
+          <t>What year marks the signing of the Regional Comprehensive Economic Partnership (RCEP), the world's largest trade agreement?</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -5827,34 +5827,34 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0.4705882370471954</v>
+        <v>0.5555555820465088</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>[[When was the year after the year that the University of Cambridge was established?]]</t>
+          <t>[[When was the University of Cambridge established?]]</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5864,12 +5864,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>When was the year after the year that the University of Cambridge was established?</t>
+          <t>When was the University of Cambridge established?</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1210</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>1096</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -5887,22 +5887,22 @@
         <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2631579041481018</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
